--- a/ifood_II.xlsx
+++ b/ifood_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Insper\Semestre 2\Ciencia de dados\P1\ciencia-dos-dados-p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230B0DC4-D3F7-4C23-8593-69D3F47D164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129F238-32FB-47A1-AB62-EDFA8F7AA2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BEDA455-C749-4A62-9F37-EEFAF5006544}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
   <si>
     <t>Treinamento</t>
-  </si>
-  <si>
-    <t>Classificação</t>
   </si>
   <si>
     <t>me dá cupom de desconto @ifood</t>
@@ -1697,6 +1694,12 @@
   </si>
   <si>
     <t>pedi logo um ifood pro almoço, sem coragem pra nada. 😌</t>
+  </si>
+  <si>
+    <t>Classificação (neutra(0), positiva(1), negativa(2))</t>
+  </si>
+  <si>
+    <t>Classificação (relevante(1), Irrelevante(0))</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1779,6 +1782,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2094,909 +2100,1216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FE0AB2-BB11-4726-B093-C9223D7E9F5D}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="B502" sqref="B502"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
@@ -3004,7 +3317,7 @@
     </row>
     <row r="113" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>0</v>
@@ -3012,7 +3325,7 @@
     </row>
     <row r="114" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
@@ -3020,7 +3333,7 @@
     </row>
     <row r="115" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -3028,7 +3341,7 @@
     </row>
     <row r="116" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -3036,7 +3349,7 @@
     </row>
     <row r="117" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -3044,7 +3357,7 @@
     </row>
     <row r="118" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
@@ -3052,7 +3365,7 @@
     </row>
     <row r="119" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
@@ -3060,7 +3373,7 @@
     </row>
     <row r="120" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>0</v>
@@ -3068,7 +3381,7 @@
     </row>
     <row r="121" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>0</v>
@@ -3076,7 +3389,7 @@
     </row>
     <row r="122" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>1</v>
@@ -3084,7 +3397,7 @@
     </row>
     <row r="123" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
@@ -3092,7 +3405,7 @@
     </row>
     <row r="124" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>1</v>
@@ -3100,7 +3413,7 @@
     </row>
     <row r="125" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
@@ -3108,7 +3421,7 @@
     </row>
     <row r="126" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
@@ -3116,7 +3429,7 @@
     </row>
     <row r="127" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
@@ -3124,7 +3437,7 @@
     </row>
     <row r="128" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>0</v>
@@ -3132,7 +3445,7 @@
     </row>
     <row r="129" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
@@ -3140,7 +3453,7 @@
     </row>
     <row r="130" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>0</v>
@@ -3148,7 +3461,7 @@
     </row>
     <row r="131" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>0</v>
@@ -3156,7 +3469,7 @@
     </row>
     <row r="132" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>0</v>
@@ -3164,7 +3477,7 @@
     </row>
     <row r="133" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>0</v>
@@ -3172,7 +3485,7 @@
     </row>
     <row r="134" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>0</v>
@@ -3180,7 +3493,7 @@
     </row>
     <row r="135" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>0</v>
@@ -3188,7 +3501,7 @@
     </row>
     <row r="136" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>0</v>
@@ -3196,7 +3509,7 @@
     </row>
     <row r="137" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>0</v>
@@ -3204,7 +3517,7 @@
     </row>
     <row r="138" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>0</v>
@@ -3212,7 +3525,7 @@
     </row>
     <row r="139" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>0</v>
@@ -3220,7 +3533,7 @@
     </row>
     <row r="140" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>0</v>
@@ -3228,7 +3541,7 @@
     </row>
     <row r="141" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>0</v>
@@ -3236,7 +3549,7 @@
     </row>
     <row r="142" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>1</v>
@@ -3244,7 +3557,7 @@
     </row>
     <row r="143" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
@@ -3252,7 +3565,7 @@
     </row>
     <row r="144" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>1</v>
@@ -3260,7 +3573,7 @@
     </row>
     <row r="145" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>0</v>
@@ -3268,7 +3581,7 @@
     </row>
     <row r="146" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>0</v>
@@ -3276,7 +3589,7 @@
     </row>
     <row r="147" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
@@ -3284,7 +3597,7 @@
     </row>
     <row r="148" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>1</v>
@@ -3292,7 +3605,7 @@
     </row>
     <row r="149" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>0</v>
@@ -3300,7 +3613,7 @@
     </row>
     <row r="150" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>0</v>
@@ -3308,7 +3621,7 @@
     </row>
     <row r="151" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
@@ -3316,7 +3629,7 @@
     </row>
     <row r="152" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>0</v>
@@ -3324,7 +3637,7 @@
     </row>
     <row r="153" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>1</v>
@@ -3332,7 +3645,7 @@
     </row>
     <row r="154" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>0</v>
@@ -3340,7 +3653,7 @@
     </row>
     <row r="155" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>0</v>
@@ -3348,7 +3661,7 @@
     </row>
     <row r="156" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
@@ -3356,7 +3669,7 @@
     </row>
     <row r="157" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>0</v>
@@ -3364,7 +3677,7 @@
     </row>
     <row r="158" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
@@ -3372,7 +3685,7 @@
     </row>
     <row r="159" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>0</v>
@@ -3380,7 +3693,7 @@
     </row>
     <row r="160" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>0</v>
@@ -3388,7 +3701,7 @@
     </row>
     <row r="161" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>1</v>
@@ -3396,7 +3709,7 @@
     </row>
     <row r="162" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>0</v>
@@ -3404,7 +3717,7 @@
     </row>
     <row r="163" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>0</v>
@@ -3412,7 +3725,7 @@
     </row>
     <row r="164" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>0</v>
@@ -3420,7 +3733,7 @@
     </row>
     <row r="165" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>1</v>
@@ -3428,7 +3741,7 @@
     </row>
     <row r="166" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>1</v>
@@ -3436,7 +3749,7 @@
     </row>
     <row r="167" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>1</v>
@@ -3444,7 +3757,7 @@
     </row>
     <row r="168" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>1</v>
@@ -3452,7 +3765,7 @@
     </row>
     <row r="169" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>0</v>
@@ -3460,7 +3773,7 @@
     </row>
     <row r="170" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>0</v>
@@ -3468,7 +3781,7 @@
     </row>
     <row r="171" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -3476,7 +3789,7 @@
     </row>
     <row r="172" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>0</v>
@@ -3484,7 +3797,7 @@
     </row>
     <row r="173" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>0</v>
@@ -3492,7 +3805,7 @@
     </row>
     <row r="174" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>1</v>
@@ -3500,7 +3813,7 @@
     </row>
     <row r="175" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>0</v>
@@ -3508,7 +3821,7 @@
     </row>
     <row r="176" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>0</v>
@@ -3516,7 +3829,7 @@
     </row>
     <row r="177" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>0</v>
@@ -3524,7 +3837,7 @@
     </row>
     <row r="178" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>0</v>
@@ -3532,7 +3845,7 @@
     </row>
     <row r="179" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>0</v>
@@ -3540,7 +3853,7 @@
     </row>
     <row r="180" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>0</v>
@@ -3548,7 +3861,7 @@
     </row>
     <row r="181" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>0</v>
@@ -3556,7 +3869,7 @@
     </row>
     <row r="182" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>0</v>
@@ -3564,7 +3877,7 @@
     </row>
     <row r="183" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>0</v>
@@ -3572,7 +3885,7 @@
     </row>
     <row r="184" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>0</v>
@@ -3580,7 +3893,7 @@
     </row>
     <row r="185" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>0</v>
@@ -3588,7 +3901,7 @@
     </row>
     <row r="186" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>1</v>
@@ -3596,7 +3909,7 @@
     </row>
     <row r="187" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>1</v>
@@ -3604,7 +3917,7 @@
     </row>
     <row r="188" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>0</v>
@@ -3612,7 +3925,7 @@
     </row>
     <row r="189" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>0</v>
@@ -3620,7 +3933,7 @@
     </row>
     <row r="190" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>0</v>
@@ -3628,7 +3941,7 @@
     </row>
     <row r="191" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>0</v>
@@ -3636,7 +3949,7 @@
     </row>
     <row r="192" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>0</v>
@@ -3644,7 +3957,7 @@
     </row>
     <row r="193" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>0</v>
@@ -3652,7 +3965,7 @@
     </row>
     <row r="194" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>0</v>
@@ -3660,7 +3973,7 @@
     </row>
     <row r="195" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>0</v>
@@ -3668,7 +3981,7 @@
     </row>
     <row r="196" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>0</v>
@@ -3676,7 +3989,7 @@
     </row>
     <row r="197" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>0</v>
@@ -3684,7 +3997,7 @@
     </row>
     <row r="198" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>0</v>
@@ -3692,7 +4005,7 @@
     </row>
     <row r="199" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>0</v>
@@ -3700,7 +4013,7 @@
     </row>
     <row r="200" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>1</v>
@@ -3708,7 +4021,7 @@
     </row>
     <row r="201" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>0</v>
@@ -3716,7 +4029,7 @@
     </row>
     <row r="202" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>0</v>
@@ -3724,7 +4037,7 @@
     </row>
     <row r="203" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>0</v>
@@ -3732,7 +4045,7 @@
     </row>
     <row r="204" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>0</v>
@@ -3740,7 +4053,7 @@
     </row>
     <row r="205" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>1</v>
@@ -3748,7 +4061,7 @@
     </row>
     <row r="206" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
@@ -3756,7 +4069,7 @@
     </row>
     <row r="207" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>0</v>
@@ -3764,7 +4077,7 @@
     </row>
     <row r="208" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>0</v>
@@ -3772,7 +4085,7 @@
     </row>
     <row r="209" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
@@ -3780,7 +4093,7 @@
     </row>
     <row r="210" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
@@ -3788,7 +4101,7 @@
     </row>
     <row r="211" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>0</v>
@@ -3796,7 +4109,7 @@
     </row>
     <row r="212" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>0</v>
@@ -3804,7 +4117,7 @@
     </row>
     <row r="213" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>0</v>
@@ -3812,7 +4125,7 @@
     </row>
     <row r="214" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>0</v>
@@ -3820,7 +4133,7 @@
     </row>
     <row r="215" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>0</v>
@@ -3828,7 +4141,7 @@
     </row>
     <row r="216" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>0</v>
@@ -3836,7 +4149,7 @@
     </row>
     <row r="217" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>1</v>
@@ -3844,7 +4157,7 @@
     </row>
     <row r="218" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>0</v>
@@ -3852,7 +4165,7 @@
     </row>
     <row r="219" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>1</v>
@@ -3860,7 +4173,7 @@
     </row>
     <row r="220" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>0</v>
@@ -3868,7 +4181,7 @@
     </row>
     <row r="221" spans="1:2" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>0</v>
@@ -3876,7 +4189,7 @@
     </row>
     <row r="222" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>0</v>
@@ -3884,7 +4197,7 @@
     </row>
     <row r="223" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>0</v>
@@ -3892,7 +4205,7 @@
     </row>
     <row r="224" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>0</v>
@@ -3900,7 +4213,7 @@
     </row>
     <row r="225" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>0</v>
@@ -3908,7 +4221,7 @@
     </row>
     <row r="226" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>0</v>
@@ -3916,7 +4229,7 @@
     </row>
     <row r="227" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>1</v>
@@ -3924,7 +4237,7 @@
     </row>
     <row r="228" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>0</v>
@@ -3932,7 +4245,7 @@
     </row>
     <row r="229" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>0</v>
@@ -3940,7 +4253,7 @@
     </row>
     <row r="230" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>0</v>
@@ -3948,7 +4261,7 @@
     </row>
     <row r="231" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>0</v>
@@ -3956,7 +4269,7 @@
     </row>
     <row r="232" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>0</v>
@@ -3964,7 +4277,7 @@
     </row>
     <row r="233" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>0</v>
@@ -3972,7 +4285,7 @@
     </row>
     <row r="234" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
@@ -3980,7 +4293,7 @@
     </row>
     <row r="235" spans="1:2" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -3988,7 +4301,7 @@
     </row>
     <row r="236" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>1</v>
@@ -3996,7 +4309,7 @@
     </row>
     <row r="237" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>1</v>
@@ -4004,7 +4317,7 @@
     </row>
     <row r="238" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>1</v>
@@ -4012,7 +4325,7 @@
     </row>
     <row r="239" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>1</v>
@@ -4020,7 +4333,7 @@
     </row>
     <row r="240" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>0</v>
@@ -4028,7 +4341,7 @@
     </row>
     <row r="241" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>0</v>
@@ -4036,7 +4349,7 @@
     </row>
     <row r="242" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>1</v>
@@ -4044,7 +4357,7 @@
     </row>
     <row r="243" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>1</v>
@@ -4052,7 +4365,7 @@
     </row>
     <row r="244" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>0</v>
@@ -4060,7 +4373,7 @@
     </row>
     <row r="245" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>0</v>
@@ -4068,7 +4381,7 @@
     </row>
     <row r="246" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>0</v>
@@ -4076,7 +4389,7 @@
     </row>
     <row r="247" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>0</v>
@@ -4084,7 +4397,7 @@
     </row>
     <row r="248" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>0</v>
@@ -4092,7 +4405,7 @@
     </row>
     <row r="249" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -4100,7 +4413,7 @@
     </row>
     <row r="250" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>0</v>
@@ -4108,7 +4421,7 @@
     </row>
     <row r="251" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>0</v>
@@ -4116,7 +4429,7 @@
     </row>
     <row r="252" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>0</v>
@@ -4124,7 +4437,7 @@
     </row>
     <row r="253" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>0</v>
@@ -4132,7 +4445,7 @@
     </row>
     <row r="254" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>0</v>
@@ -4140,7 +4453,7 @@
     </row>
     <row r="255" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>0</v>
@@ -4148,7 +4461,7 @@
     </row>
     <row r="256" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>0</v>
@@ -4156,7 +4469,7 @@
     </row>
     <row r="257" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>0</v>
@@ -4164,7 +4477,7 @@
     </row>
     <row r="258" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>0</v>
@@ -4172,7 +4485,7 @@
     </row>
     <row r="259" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>0</v>
@@ -4180,7 +4493,7 @@
     </row>
     <row r="260" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>0</v>
@@ -4188,7 +4501,7 @@
     </row>
     <row r="261" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>0</v>
@@ -4196,7 +4509,7 @@
     </row>
     <row r="262" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2">
         <v>0</v>
@@ -4204,7 +4517,7 @@
     </row>
     <row r="263" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>0</v>
@@ -4212,7 +4525,7 @@
     </row>
     <row r="264" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>0</v>
@@ -4220,7 +4533,7 @@
     </row>
     <row r="265" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>0</v>
@@ -4228,7 +4541,7 @@
     </row>
     <row r="266" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2">
         <v>0</v>
@@ -4236,7 +4549,7 @@
     </row>
     <row r="267" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>1</v>
@@ -4244,7 +4557,7 @@
     </row>
     <row r="268" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>1</v>
@@ -4252,7 +4565,7 @@
     </row>
     <row r="269" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>0</v>
@@ -4260,7 +4573,7 @@
     </row>
     <row r="270" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>0</v>
@@ -4268,7 +4581,7 @@
     </row>
     <row r="271" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>0</v>
@@ -4276,7 +4589,7 @@
     </row>
     <row r="272" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2">
         <v>0</v>
@@ -4284,7 +4597,7 @@
     </row>
     <row r="273" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>0</v>
@@ -4292,7 +4605,7 @@
     </row>
     <row r="274" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>1</v>
@@ -4300,7 +4613,7 @@
     </row>
     <row r="275" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>0</v>
@@ -4308,7 +4621,7 @@
     </row>
     <row r="276" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>0</v>
@@ -4316,7 +4629,7 @@
     </row>
     <row r="277" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2">
         <v>0</v>
@@ -4324,7 +4637,7 @@
     </row>
     <row r="278" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>0</v>
@@ -4332,7 +4645,7 @@
     </row>
     <row r="279" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>0</v>
@@ -4340,7 +4653,7 @@
     </row>
     <row r="280" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2">
         <v>0</v>
@@ -4348,7 +4661,7 @@
     </row>
     <row r="281" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>0</v>
@@ -4356,7 +4669,7 @@
     </row>
     <row r="282" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2">
         <v>0</v>
@@ -4364,7 +4677,7 @@
     </row>
     <row r="283" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>0</v>
@@ -4372,7 +4685,7 @@
     </row>
     <row r="284" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>0</v>
@@ -4380,7 +4693,7 @@
     </row>
     <row r="285" spans="1:2" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>0</v>
@@ -4388,7 +4701,7 @@
     </row>
     <row r="286" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>1</v>
@@ -4396,7 +4709,7 @@
     </row>
     <row r="287" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>0</v>
@@ -4404,7 +4717,7 @@
     </row>
     <row r="288" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>0</v>
@@ -4412,7 +4725,7 @@
     </row>
     <row r="289" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>1</v>
@@ -4420,7 +4733,7 @@
     </row>
     <row r="290" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2">
         <v>0</v>
@@ -4428,7 +4741,7 @@
     </row>
     <row r="291" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>0</v>
@@ -4436,7 +4749,7 @@
     </row>
     <row r="292" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>0</v>
@@ -4444,7 +4757,7 @@
     </row>
     <row r="293" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>0</v>
@@ -4452,7 +4765,7 @@
     </row>
     <row r="294" spans="1:2" s="3" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>0</v>
@@ -4460,7 +4773,7 @@
     </row>
     <row r="295" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>0</v>
@@ -4468,7 +4781,7 @@
     </row>
     <row r="296" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>0</v>
@@ -4476,7 +4789,7 @@
     </row>
     <row r="297" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>1</v>
@@ -4484,7 +4797,7 @@
     </row>
     <row r="298" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>0</v>
@@ -4492,7 +4805,7 @@
     </row>
     <row r="299" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>0</v>
@@ -4500,7 +4813,7 @@
     </row>
     <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>0</v>
@@ -4508,7 +4821,7 @@
     </row>
     <row r="301" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>0</v>
@@ -4516,7 +4829,7 @@
     </row>
     <row r="302" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2">
         <v>0</v>
@@ -4524,7 +4837,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2">
         <v>0</v>
@@ -4532,7 +4845,7 @@
     </row>
     <row r="304" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2">
         <v>0</v>
@@ -4540,7 +4853,7 @@
     </row>
     <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>0</v>
@@ -4548,7 +4861,7 @@
     </row>
     <row r="306" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>0</v>
@@ -4556,7 +4869,7 @@
     </row>
     <row r="307" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>0</v>
@@ -4564,7 +4877,7 @@
     </row>
     <row r="308" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>0</v>
@@ -4572,7 +4885,7 @@
     </row>
     <row r="309" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>0</v>
@@ -4580,7 +4893,7 @@
     </row>
     <row r="310" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>0</v>
@@ -4588,7 +4901,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>0</v>
@@ -4596,7 +4909,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>0</v>
@@ -4604,7 +4917,7 @@
     </row>
     <row r="313" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>1</v>
@@ -4612,7 +4925,7 @@
     </row>
     <row r="314" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>0</v>
@@ -4620,7 +4933,7 @@
     </row>
     <row r="315" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>1</v>
@@ -4628,7 +4941,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>0</v>
@@ -4636,7 +4949,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>0</v>
@@ -4644,7 +4957,7 @@
     </row>
     <row r="318" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>0</v>
@@ -4652,7 +4965,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>0</v>
@@ -4660,7 +4973,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>0</v>
@@ -4668,7 +4981,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>0</v>
@@ -4676,7 +4989,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>0</v>
@@ -4684,7 +4997,7 @@
     </row>
     <row r="323" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>1</v>
@@ -4692,7 +5005,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>0</v>
@@ -4700,7 +5013,7 @@
     </row>
     <row r="325" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>0</v>
@@ -4708,7 +5021,7 @@
     </row>
     <row r="326" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>0</v>
@@ -4716,7 +5029,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>0</v>
@@ -4724,7 +5037,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>0</v>
@@ -4732,7 +5045,7 @@
     </row>
     <row r="329" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>0</v>
@@ -4740,7 +5053,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>1</v>
@@ -4748,7 +5061,7 @@
     </row>
     <row r="331" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>0</v>
@@ -4756,7 +5069,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>0</v>
@@ -4764,7 +5077,7 @@
     </row>
     <row r="333" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>0</v>
@@ -4772,7 +5085,7 @@
     </row>
     <row r="334" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>1</v>
@@ -4780,7 +5093,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>0</v>
@@ -4788,7 +5101,7 @@
     </row>
     <row r="336" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>0</v>
@@ -4796,7 +5109,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>0</v>
@@ -4804,7 +5117,7 @@
     </row>
     <row r="338" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>0</v>
@@ -4812,7 +5125,7 @@
     </row>
     <row r="339" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>1</v>
@@ -4820,7 +5133,7 @@
     </row>
     <row r="340" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>0</v>
@@ -4828,7 +5141,7 @@
     </row>
     <row r="341" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>0</v>
@@ -4836,7 +5149,7 @@
     </row>
     <row r="342" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>0</v>
@@ -4844,7 +5157,7 @@
     </row>
     <row r="343" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>0</v>
@@ -4852,7 +5165,7 @@
     </row>
     <row r="344" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>1</v>
@@ -4860,7 +5173,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>0</v>
@@ -4868,7 +5181,7 @@
     </row>
     <row r="346" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>0</v>
@@ -4876,7 +5189,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>0</v>
@@ -4884,7 +5197,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>0</v>
@@ -4892,7 +5205,7 @@
     </row>
     <row r="349" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>1</v>
@@ -4900,7 +5213,7 @@
     </row>
     <row r="350" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>1</v>
@@ -4908,7 +5221,7 @@
     </row>
     <row r="351" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>0</v>
@@ -4916,7 +5229,7 @@
     </row>
     <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B352" s="2">
         <v>0</v>
@@ -4924,7 +5237,7 @@
     </row>
     <row r="353" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B353" s="2">
         <v>1</v>
@@ -4932,7 +5245,7 @@
     </row>
     <row r="354" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B354" s="2">
         <v>0</v>
@@ -4940,7 +5253,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355" s="2">
         <v>0</v>
@@ -4948,7 +5261,7 @@
     </row>
     <row r="356" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B356" s="2">
         <v>1</v>
@@ -4956,7 +5269,7 @@
     </row>
     <row r="357" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B357" s="2">
         <v>0</v>
@@ -4964,7 +5277,7 @@
     </row>
     <row r="358" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B358" s="2">
         <v>1</v>
@@ -4972,7 +5285,7 @@
     </row>
     <row r="359" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B359" s="2">
         <v>0</v>
@@ -4980,7 +5293,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B360" s="2">
         <v>0</v>
@@ -4988,7 +5301,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B361" s="2">
         <v>0</v>
@@ -4996,7 +5309,7 @@
     </row>
     <row r="362" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B362" s="2">
         <v>0</v>
@@ -5004,7 +5317,7 @@
     </row>
     <row r="363" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B363" s="2">
         <v>0</v>
@@ -5012,7 +5325,7 @@
     </row>
     <row r="364" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B364" s="2">
         <v>0</v>
@@ -5020,7 +5333,7 @@
     </row>
     <row r="365" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B365" s="2">
         <v>0</v>
@@ -5028,7 +5341,7 @@
     </row>
     <row r="366" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B366" s="2">
         <v>1</v>
@@ -5036,7 +5349,7 @@
     </row>
     <row r="367" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B367" s="2">
         <v>1</v>
@@ -5044,7 +5357,7 @@
     </row>
     <row r="368" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B368" s="2">
         <v>0</v>
@@ -5052,7 +5365,7 @@
     </row>
     <row r="369" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369" s="2">
         <v>1</v>
@@ -5060,7 +5373,7 @@
     </row>
     <row r="370" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B370" s="2">
         <v>1</v>
@@ -5068,7 +5381,7 @@
     </row>
     <row r="371" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B371" s="2">
         <v>1</v>
@@ -5076,7 +5389,7 @@
     </row>
     <row r="372" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B372" s="2">
         <v>0</v>
@@ -5084,7 +5397,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B373" s="2">
         <v>0</v>
@@ -5092,7 +5405,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B374" s="2">
         <v>0</v>
@@ -5100,7 +5413,7 @@
     </row>
     <row r="375" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B375" s="2">
         <v>1</v>
@@ -5108,7 +5421,7 @@
     </row>
     <row r="376" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B376" s="2">
         <v>1</v>
@@ -5116,7 +5429,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B377" s="2">
         <v>0</v>
@@ -5124,7 +5437,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B378" s="2">
         <v>0</v>
@@ -5132,7 +5445,7 @@
     </row>
     <row r="379" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B379" s="2">
         <v>0</v>
@@ -5140,7 +5453,7 @@
     </row>
     <row r="380" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B380" s="2">
         <v>1</v>
@@ -5148,7 +5461,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B381" s="2">
         <v>0</v>
@@ -5156,7 +5469,7 @@
     </row>
     <row r="382" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B382" s="2">
         <v>0</v>
@@ -5164,7 +5477,7 @@
     </row>
     <row r="383" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B383" s="2">
         <v>0</v>
@@ -5172,7 +5485,7 @@
     </row>
     <row r="384" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B384" s="2">
         <v>1</v>
@@ -5180,7 +5493,7 @@
     </row>
     <row r="385" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B385" s="2">
         <v>0</v>
@@ -5188,7 +5501,7 @@
     </row>
     <row r="386" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B386" s="2">
         <v>0</v>
@@ -5196,7 +5509,7 @@
     </row>
     <row r="387" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B387" s="2">
         <v>0</v>
@@ -5204,7 +5517,7 @@
     </row>
     <row r="388" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B388" s="2">
         <v>0</v>
@@ -5212,7 +5525,7 @@
     </row>
     <row r="389" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B389" s="2">
         <v>0</v>
@@ -5220,7 +5533,7 @@
     </row>
     <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B390" s="2">
         <v>0</v>
@@ -5228,7 +5541,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B391" s="2">
         <v>0</v>
@@ -5236,7 +5549,7 @@
     </row>
     <row r="392" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B392" s="2">
         <v>0</v>
@@ -5244,7 +5557,7 @@
     </row>
     <row r="393" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B393" s="2">
         <v>0</v>
@@ -5252,7 +5565,7 @@
     </row>
     <row r="394" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B394" s="2">
         <v>0</v>
@@ -5260,7 +5573,7 @@
     </row>
     <row r="395" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B395" s="2">
         <v>1</v>
@@ -5268,7 +5581,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B396" s="2">
         <v>0</v>
@@ -5276,7 +5589,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B397" s="2">
         <v>0</v>
@@ -5284,7 +5597,7 @@
     </row>
     <row r="398" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B398" s="2">
         <v>0</v>
@@ -5292,7 +5605,7 @@
     </row>
     <row r="399" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B399" s="2">
         <v>0</v>
@@ -5300,7 +5613,7 @@
     </row>
     <row r="400" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B400" s="2">
         <v>0</v>
@@ -5308,7 +5621,7 @@
     </row>
     <row r="401" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B401" s="2">
         <v>1</v>
@@ -5316,7 +5629,7 @@
     </row>
     <row r="402" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B402" s="2">
         <v>0</v>
@@ -5324,7 +5637,7 @@
     </row>
     <row r="403" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B403" s="2">
         <v>1</v>
@@ -5332,7 +5645,7 @@
     </row>
     <row r="404" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B404" s="2">
         <v>0</v>
@@ -5340,7 +5653,7 @@
     </row>
     <row r="405" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B405" s="2">
         <v>0</v>
@@ -5348,7 +5661,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B406" s="2">
         <v>0</v>
@@ -5356,7 +5669,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B407" s="2">
         <v>0</v>
@@ -5364,7 +5677,7 @@
     </row>
     <row r="408" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B408" s="2">
         <v>0</v>
@@ -5372,7 +5685,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B409" s="2">
         <v>0</v>
@@ -5380,7 +5693,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B410" s="2">
         <v>1</v>
@@ -5388,7 +5701,7 @@
     </row>
     <row r="411" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B411" s="2">
         <v>0</v>
@@ -5396,7 +5709,7 @@
     </row>
     <row r="412" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B412" s="2">
         <v>0</v>
@@ -5404,7 +5717,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B413" s="2">
         <v>0</v>
@@ -5412,7 +5725,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B414" s="2">
         <v>0</v>
@@ -5420,7 +5733,7 @@
     </row>
     <row r="415" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B415" s="2">
         <v>1</v>
@@ -5428,7 +5741,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B416" s="2">
         <v>0</v>
@@ -5436,7 +5749,7 @@
     </row>
     <row r="417" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B417" s="2">
         <v>0</v>
@@ -5444,7 +5757,7 @@
     </row>
     <row r="418" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B418" s="2">
         <v>0</v>
@@ -5452,7 +5765,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B419" s="2">
         <v>0</v>
@@ -5460,7 +5773,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B420" s="2">
         <v>0</v>
@@ -5468,7 +5781,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B421" s="2">
         <v>1</v>
@@ -5476,7 +5789,7 @@
     </row>
     <row r="422" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B422" s="2">
         <v>1</v>
@@ -5484,7 +5797,7 @@
     </row>
     <row r="423" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B423" s="2">
         <v>1</v>
@@ -5492,7 +5805,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B424" s="2">
         <v>0</v>
@@ -5500,7 +5813,7 @@
     </row>
     <row r="425" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B425" s="2">
         <v>0</v>
@@ -5508,7 +5821,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B426" s="2">
         <v>1</v>
@@ -5516,7 +5829,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B427" s="2">
         <v>0</v>
@@ -5524,7 +5837,7 @@
     </row>
     <row r="428" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B428" s="2">
         <v>1</v>
@@ -5532,7 +5845,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B429" s="2">
         <v>1</v>
@@ -5540,7 +5853,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B430" s="2">
         <v>0</v>
@@ -5548,7 +5861,7 @@
     </row>
     <row r="431" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B431" s="2">
         <v>0</v>
@@ -5556,7 +5869,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B432" s="2">
         <v>0</v>
@@ -5564,7 +5877,7 @@
     </row>
     <row r="433" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B433" s="2">
         <v>0</v>
@@ -5572,7 +5885,7 @@
     </row>
     <row r="434" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B434" s="2">
         <v>0</v>
@@ -5580,7 +5893,7 @@
     </row>
     <row r="435" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B435" s="2">
         <v>1</v>
@@ -5588,7 +5901,7 @@
     </row>
     <row r="436" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B436" s="2">
         <v>0</v>
@@ -5596,7 +5909,7 @@
     </row>
     <row r="437" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B437" s="2">
         <v>0</v>
@@ -5604,7 +5917,7 @@
     </row>
     <row r="438" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B438" s="2">
         <v>0</v>
@@ -5612,7 +5925,7 @@
     </row>
     <row r="439" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B439" s="2">
         <v>1</v>
@@ -5620,7 +5933,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B440" s="2">
         <v>0</v>
@@ -5628,7 +5941,7 @@
     </row>
     <row r="441" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B441" s="2">
         <v>1</v>
@@ -5636,7 +5949,7 @@
     </row>
     <row r="442" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442" s="2">
         <v>0</v>
@@ -5644,7 +5957,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B443" s="2">
         <v>0</v>
@@ -5652,7 +5965,7 @@
     </row>
     <row r="444" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B444" s="2">
         <v>0</v>
@@ -5660,7 +5973,7 @@
     </row>
     <row r="445" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B445" s="2">
         <v>0</v>
@@ -5668,7 +5981,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B446" s="2">
         <v>1</v>
@@ -5676,7 +5989,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B447" s="2">
         <v>1</v>
@@ -5684,7 +5997,7 @@
     </row>
     <row r="448" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B448" s="2">
         <v>0</v>
@@ -5692,7 +6005,7 @@
     </row>
     <row r="449" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B449" s="2">
         <v>1</v>
@@ -5700,7 +6013,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B450" s="2">
         <v>1</v>
@@ -5708,7 +6021,7 @@
     </row>
     <row r="451" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B451" s="2">
         <v>0</v>
@@ -5716,7 +6029,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B452" s="2">
         <v>1</v>
@@ -5724,7 +6037,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B453" s="2">
         <v>1</v>
@@ -5732,7 +6045,7 @@
     </row>
     <row r="454" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B454" s="2">
         <v>0</v>
@@ -5740,7 +6053,7 @@
     </row>
     <row r="455" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B455" s="2">
         <v>1</v>
@@ -5748,7 +6061,7 @@
     </row>
     <row r="456" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B456" s="2">
         <v>1</v>
@@ -5756,7 +6069,7 @@
     </row>
     <row r="457" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B457" s="2">
         <v>0</v>
@@ -5764,7 +6077,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B458" s="2">
         <v>0</v>
@@ -5772,7 +6085,7 @@
     </row>
     <row r="459" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B459" s="2">
         <v>1</v>
@@ -5780,7 +6093,7 @@
     </row>
     <row r="460" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B460" s="2">
         <v>0</v>
@@ -5788,7 +6101,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B461" s="2">
         <v>0</v>
@@ -5796,7 +6109,7 @@
     </row>
     <row r="462" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B462" s="2">
         <v>1</v>
@@ -5804,7 +6117,7 @@
     </row>
     <row r="463" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B463" s="2">
         <v>0</v>
@@ -5812,7 +6125,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B464" s="2">
         <v>0</v>
@@ -5820,7 +6133,7 @@
     </row>
     <row r="465" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B465" s="2">
         <v>0</v>
@@ -5828,7 +6141,7 @@
     </row>
     <row r="466" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B466" s="2">
         <v>1</v>
@@ -5836,7 +6149,7 @@
     </row>
     <row r="467" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B467" s="2">
         <v>0</v>
@@ -5844,7 +6157,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B468" s="2">
         <v>0</v>
@@ -5852,7 +6165,7 @@
     </row>
     <row r="469" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B469" s="2">
         <v>1</v>
@@ -5860,7 +6173,7 @@
     </row>
     <row r="470" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B470" s="2">
         <v>0</v>
@@ -5868,7 +6181,7 @@
     </row>
     <row r="471" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B471" s="2">
         <v>0</v>
@@ -5876,7 +6189,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B472" s="2">
         <v>0</v>
@@ -5884,7 +6197,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B473" s="2">
         <v>0</v>
@@ -5892,7 +6205,7 @@
     </row>
     <row r="474" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B474" s="2">
         <v>1</v>
@@ -5900,7 +6213,7 @@
     </row>
     <row r="475" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B475" s="2">
         <v>1</v>
@@ -5908,7 +6221,7 @@
     </row>
     <row r="476" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B476" s="2">
         <v>0</v>
@@ -5916,7 +6229,7 @@
     </row>
     <row r="477" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B477" s="2">
         <v>1</v>
@@ -5924,7 +6237,7 @@
     </row>
     <row r="478" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B478" s="2">
         <v>0</v>
@@ -5932,7 +6245,7 @@
     </row>
     <row r="479" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B479" s="2">
         <v>1</v>
@@ -5940,7 +6253,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B480" s="2">
         <v>0</v>
@@ -5948,7 +6261,7 @@
     </row>
     <row r="481" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B481" s="2">
         <v>1</v>
@@ -5956,7 +6269,7 @@
     </row>
     <row r="482" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B482" s="2">
         <v>0</v>
@@ -5964,7 +6277,7 @@
     </row>
     <row r="483" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B483" s="2">
         <v>1</v>
@@ -5972,7 +6285,7 @@
     </row>
     <row r="484" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B484" s="2">
         <v>0</v>
@@ -5980,7 +6293,7 @@
     </row>
     <row r="485" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B485" s="2">
         <v>1</v>
@@ -5988,7 +6301,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B486" s="2">
         <v>0</v>
@@ -5996,7 +6309,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B487" s="2">
         <v>0</v>
@@ -6004,7 +6317,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B488" s="2">
         <v>0</v>
@@ -6012,7 +6325,7 @@
     </row>
     <row r="489" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B489" s="2">
         <v>0</v>
@@ -6020,7 +6333,7 @@
     </row>
     <row r="490" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B490" s="2">
         <v>1</v>
@@ -6028,7 +6341,7 @@
     </row>
     <row r="491" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B491" s="2">
         <v>0</v>
@@ -6036,7 +6349,7 @@
     </row>
     <row r="492" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B492" s="2">
         <v>0</v>
@@ -6044,7 +6357,7 @@
     </row>
     <row r="493" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B493" s="2">
         <v>0</v>
@@ -6052,7 +6365,7 @@
     </row>
     <row r="494" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B494" s="2">
         <v>0</v>
@@ -6060,7 +6373,7 @@
     </row>
     <row r="495" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B495" s="2">
         <v>0</v>
@@ -6068,7 +6381,7 @@
     </row>
     <row r="496" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B496" s="2">
         <v>1</v>
@@ -6076,7 +6389,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B497" s="2">
         <v>0</v>
@@ -6084,7 +6397,7 @@
     </row>
     <row r="498" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B498" s="2">
         <v>1</v>
@@ -6092,7 +6405,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B499" s="2">
         <v>0</v>
@@ -6100,7 +6413,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B500" s="2">
         <v>1</v>
@@ -6108,7 +6421,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B501" s="2">
         <v>0</v>
@@ -6116,5 +6429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ifood_II.xlsx
+++ b/ifood_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Insper\Semestre 2\Ciencia de dados\P1\ciencia-dos-dados-p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129F238-32FB-47A1-AB62-EDFA8F7AA2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F8F0D-96AB-463E-9266-BA3103291876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BEDA455-C749-4A62-9F37-EEFAF5006544}"/>
   </bookViews>
@@ -1766,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1783,9 +1783,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2102,14 +2106,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FE0AB2-BB11-4726-B093-C9223D7E9F5D}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.44140625" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2119,7 +2124,7 @@
       <c r="B1" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>501</v>
       </c>
     </row>
@@ -2130,7 +2135,7 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2141,7 +2146,7 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2152,7 +2157,7 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2163,7 +2168,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2174,7 +2179,7 @@
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2185,7 +2190,7 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2196,7 +2201,7 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2207,7 +2212,7 @@
       <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2218,7 +2223,7 @@
       <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2234,7 @@
       <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2240,7 +2245,7 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2251,7 +2256,7 @@
       <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2262,7 +2267,7 @@
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2273,7 +2278,7 @@
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2284,7 +2289,7 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2295,7 +2300,7 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2306,7 +2311,7 @@
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2317,7 +2322,7 @@
       <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2328,7 +2333,7 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2339,7 +2344,7 @@
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2350,7 +2355,7 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2361,7 +2366,7 @@
       <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2372,7 +2377,7 @@
       <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2383,7 +2388,7 @@
       <c r="B25" s="2">
         <v>0</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2394,7 +2399,7 @@
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2405,7 +2410,7 @@
       <c r="B27" s="2">
         <v>0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2416,7 +2421,7 @@
       <c r="B28" s="2">
         <v>0</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2427,7 +2432,7 @@
       <c r="B29" s="2">
         <v>0</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2438,7 +2443,7 @@
       <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2449,7 +2454,7 @@
       <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2460,7 +2465,7 @@
       <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2471,7 +2476,7 @@
       <c r="B33" s="2">
         <v>0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2482,7 +2487,7 @@
       <c r="B34" s="2">
         <v>0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2493,7 +2498,7 @@
       <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2504,7 +2509,7 @@
       <c r="B36" s="2">
         <v>0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2515,7 +2520,7 @@
       <c r="B37" s="2">
         <v>0</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2526,7 +2531,7 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2537,7 +2542,7 @@
       <c r="B39" s="2">
         <v>0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2548,7 +2553,7 @@
       <c r="B40" s="2">
         <v>0</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2559,7 +2564,7 @@
       <c r="B41" s="2">
         <v>0</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2570,7 +2575,7 @@
       <c r="B42" s="2">
         <v>0</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2581,7 +2586,7 @@
       <c r="B43" s="2">
         <v>0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2592,7 +2597,7 @@
       <c r="B44" s="2">
         <v>0</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2603,7 +2608,7 @@
       <c r="B45" s="2">
         <v>0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2614,7 +2619,7 @@
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2625,7 +2630,7 @@
       <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2636,7 +2641,7 @@
       <c r="B48" s="2">
         <v>0</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2647,7 +2652,7 @@
       <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2658,7 +2663,7 @@
       <c r="B50" s="2">
         <v>0</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2669,7 +2674,7 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2680,7 +2685,7 @@
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2691,7 +2696,7 @@
       <c r="B53" s="2">
         <v>0</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2707,7 @@
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2713,7 +2718,7 @@
       <c r="B55" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2724,7 +2729,7 @@
       <c r="B56" s="2">
         <v>0</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2735,7 +2740,7 @@
       <c r="B57" s="2">
         <v>0</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2746,7 +2751,7 @@
       <c r="B58" s="2">
         <v>0</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2757,7 +2762,7 @@
       <c r="B59" s="2">
         <v>0</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2768,7 +2773,7 @@
       <c r="B60" s="2">
         <v>1</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2779,7 +2784,7 @@
       <c r="B61" s="2">
         <v>0</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2790,7 +2795,7 @@
       <c r="B62" s="2">
         <v>0</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2801,7 +2806,7 @@
       <c r="B63" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2812,7 +2817,7 @@
       <c r="B64" s="2">
         <v>1</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2823,7 +2828,7 @@
       <c r="B65" s="2">
         <v>0</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2834,7 +2839,7 @@
       <c r="B66" s="2">
         <v>1</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2845,7 +2850,7 @@
       <c r="B67" s="2">
         <v>0</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2856,7 +2861,7 @@
       <c r="B68" s="2">
         <v>0</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2867,7 +2872,7 @@
       <c r="B69" s="2">
         <v>0</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +2883,7 @@
       <c r="B70" s="2">
         <v>0</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2889,7 +2894,7 @@
       <c r="B71" s="2">
         <v>0</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2900,7 +2905,7 @@
       <c r="B72" s="2">
         <v>1</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2916,7 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2922,7 +2927,7 @@
       <c r="B74" s="2">
         <v>0</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2933,7 +2938,7 @@
       <c r="B75" s="2">
         <v>0</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2944,7 +2949,7 @@
       <c r="B76" s="2">
         <v>1</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2955,7 +2960,7 @@
       <c r="B77" s="2">
         <v>0</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2966,7 +2971,7 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2977,7 +2982,7 @@
       <c r="B79" s="2">
         <v>0</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2988,7 +2993,7 @@
       <c r="B80" s="2">
         <v>0</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2999,7 +3004,7 @@
       <c r="B81" s="2">
         <v>0</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3010,7 +3015,7 @@
       <c r="B82" s="2">
         <v>0</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3021,7 +3026,7 @@
       <c r="B83" s="2">
         <v>1</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3032,7 +3037,7 @@
       <c r="B84" s="2">
         <v>1</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3043,7 +3048,7 @@
       <c r="B85" s="2">
         <v>1</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3054,7 +3059,7 @@
       <c r="B86" s="2">
         <v>1</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3065,7 +3070,7 @@
       <c r="B87" s="2">
         <v>1</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3076,7 +3081,7 @@
       <c r="B88" s="2">
         <v>1</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3087,7 +3092,7 @@
       <c r="B89" s="2">
         <v>0</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3098,7 +3103,7 @@
       <c r="B90" s="2">
         <v>0</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3109,7 +3114,7 @@
       <c r="B91" s="2">
         <v>0</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3120,7 +3125,7 @@
       <c r="B92" s="2">
         <v>1</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3131,7 +3136,7 @@
       <c r="B93" s="2">
         <v>1</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3142,7 +3147,7 @@
       <c r="B94" s="2">
         <v>1</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3153,7 +3158,7 @@
       <c r="B95" s="2">
         <v>1</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3164,7 +3169,7 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3175,7 +3180,7 @@
       <c r="B97" s="2">
         <v>0</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3186,7 +3191,7 @@
       <c r="B98" s="2">
         <v>0</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3197,7 +3202,7 @@
       <c r="B99" s="2">
         <v>1</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3208,7 +3213,7 @@
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3219,7 +3224,7 @@
       <c r="B101" s="5">
         <v>0</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3230,7 +3235,7 @@
       <c r="B102" s="2">
         <v>0</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3246,9 @@
       <c r="B103" s="2">
         <v>0</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
@@ -3250,6 +3257,9 @@
       <c r="B104" s="2">
         <v>0</v>
       </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
@@ -3258,6 +3268,9 @@
       <c r="B105" s="2">
         <v>1</v>
       </c>
+      <c r="C105" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
@@ -3266,6 +3279,9 @@
       <c r="B106" s="2">
         <v>0</v>
       </c>
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
@@ -3274,6 +3290,9 @@
       <c r="B107" s="2">
         <v>0</v>
       </c>
+      <c r="C107" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
@@ -3282,6 +3301,9 @@
       <c r="B108" s="2">
         <v>0</v>
       </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
@@ -3290,6 +3312,9 @@
       <c r="B109" s="2">
         <v>1</v>
       </c>
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
@@ -3298,6 +3323,9 @@
       <c r="B110" s="2">
         <v>0</v>
       </c>
+      <c r="C110" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
@@ -3306,6 +3334,9 @@
       <c r="B111" s="2">
         <v>0</v>
       </c>
+      <c r="C111" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
@@ -3314,1520 +3345,1904 @@
       <c r="B112" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C118" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C122" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C124" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C142" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C144" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C146" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C147" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C152" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C156" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C161" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C164" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C166" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C167" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C169" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C171" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C172" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C174" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C175" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C176" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C177" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C178" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C181" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C182" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C185" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C186" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C191" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C193" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C194" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C195" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C196" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C202" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C204" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C205" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C206" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C207" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C208" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C220" s="6"/>
+    </row>
+    <row r="221" spans="1:3" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C222" s="6"/>
+    </row>
+    <row r="223" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C223" s="6"/>
+    </row>
+    <row r="224" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="6"/>
+    </row>
+    <row r="225" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C225" s="6"/>
+    </row>
+    <row r="226" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C226" s="6"/>
+    </row>
+    <row r="227" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C227" s="6"/>
+    </row>
+    <row r="228" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C228" s="6"/>
+    </row>
+    <row r="229" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C229" s="6"/>
+    </row>
+    <row r="230" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="6"/>
+    </row>
+    <row r="231" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="6"/>
+    </row>
+    <row r="232" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C232" s="6"/>
+    </row>
+    <row r="233" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="6"/>
+    </row>
+    <row r="234" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="C234" s="6"/>
+    </row>
+    <row r="235" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="6"/>
+    </row>
+    <row r="239" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C239" s="6"/>
+    </row>
+    <row r="240" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C242" s="6"/>
+    </row>
+    <row r="243" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C243" s="6"/>
+    </row>
+    <row r="244" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="6"/>
+    </row>
+    <row r="245" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C246" s="6"/>
+    </row>
+    <row r="247" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="6"/>
+    </row>
+    <row r="248" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C248" s="6"/>
+    </row>
+    <row r="249" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="6"/>
+    </row>
+    <row r="250" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C250" s="6"/>
+    </row>
+    <row r="251" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="6"/>
+    </row>
+    <row r="252" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="6"/>
+    </row>
+    <row r="253" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="6"/>
+    </row>
+    <row r="254" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C254" s="6"/>
+    </row>
+    <row r="255" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C255" s="6"/>
+    </row>
+    <row r="256" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C256" s="6"/>
+    </row>
+    <row r="257" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C257" s="6"/>
+    </row>
+    <row r="258" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C258" s="6"/>
+    </row>
+    <row r="259" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="6"/>
+    </row>
+    <row r="260" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="6"/>
+    </row>
+    <row r="261" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="6"/>
+    </row>
+    <row r="262" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B262" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C262" s="6"/>
+    </row>
+    <row r="263" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C263" s="6"/>
+    </row>
+    <row r="264" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C264" s="6"/>
+    </row>
+    <row r="265" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C265" s="6"/>
+    </row>
+    <row r="266" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B266" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C266" s="6"/>
+    </row>
+    <row r="267" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C267" s="6"/>
+    </row>
+    <row r="268" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="6"/>
+    </row>
+    <row r="269" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C269" s="6"/>
+    </row>
+    <row r="270" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="6"/>
+    </row>
+    <row r="271" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C271" s="6"/>
+    </row>
+    <row r="272" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B272" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C272" s="6"/>
+    </row>
+    <row r="273" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C273" s="6"/>
+    </row>
+    <row r="274" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="6"/>
+    </row>
+    <row r="275" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="6"/>
+    </row>
+    <row r="276" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C276" s="6"/>
+    </row>
+    <row r="277" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B277" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C277" s="6"/>
+    </row>
+    <row r="278" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C278" s="6"/>
+    </row>
+    <row r="279" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C279" s="6"/>
+    </row>
+    <row r="280" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B280" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C280" s="6"/>
+    </row>
+    <row r="281" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C281" s="6"/>
+    </row>
+    <row r="282" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>281</v>
       </c>
       <c r="B282" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C283" s="6"/>
+    </row>
+    <row r="284" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C284" s="6"/>
+    </row>
+    <row r="285" spans="1:3" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C285" s="6"/>
+    </row>
+    <row r="286" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C286" s="6"/>
+    </row>
+    <row r="287" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C287" s="6"/>
+    </row>
+    <row r="288" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="6"/>
+    </row>
+    <row r="289" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="6"/>
+    </row>
+    <row r="290" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B290" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C290" s="6"/>
+    </row>
+    <row r="291" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C291" s="6"/>
+    </row>
+    <row r="292" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C292" s="6"/>
+    </row>
+    <row r="293" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" s="3" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="C293" s="6"/>
+    </row>
+    <row r="294" spans="1:3" s="3" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="6"/>
+    </row>
+    <row r="296" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C296" s="6"/>
+    </row>
+    <row r="297" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="6"/>
+    </row>
+    <row r="298" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C298" s="6"/>
+    </row>
+    <row r="299" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="6"/>
+    </row>
+    <row r="300" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C300" s="6"/>
+    </row>
+    <row r="301" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C301" s="6"/>
+    </row>
+    <row r="302" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>301</v>
       </c>
@@ -4835,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>302</v>
       </c>
@@ -4843,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>303</v>
       </c>

--- a/ifood_II.xlsx
+++ b/ifood_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Insper\Semestre 2\Ciencia de dados\P1\ciencia-dos-dados-p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2F8F0D-96AB-463E-9266-BA3103291876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C72864-7EB0-4F08-B167-0690BA19FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BEDA455-C749-4A62-9F37-EEFAF5006544}"/>
   </bookViews>
@@ -2104,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FE0AB2-BB11-4726-B093-C9223D7E9F5D}">
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E499" sqref="E499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4412,7 +4412,9 @@
       <c r="B209" s="2">
         <v>1</v>
       </c>
-      <c r="C209" s="6"/>
+      <c r="C209" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="210" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
@@ -4421,7 +4423,9 @@
       <c r="B210" s="2">
         <v>0</v>
       </c>
-      <c r="C210" s="6"/>
+      <c r="C210" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
@@ -4430,7 +4434,9 @@
       <c r="B211" s="2">
         <v>0</v>
       </c>
-      <c r="C211" s="6"/>
+      <c r="C211" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
@@ -4439,7 +4445,9 @@
       <c r="B212" s="2">
         <v>0</v>
       </c>
-      <c r="C212" s="6"/>
+      <c r="C212" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
@@ -4448,7 +4456,9 @@
       <c r="B213" s="2">
         <v>0</v>
       </c>
-      <c r="C213" s="6"/>
+      <c r="C213" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
@@ -4457,7 +4467,9 @@
       <c r="B214" s="2">
         <v>0</v>
       </c>
-      <c r="C214" s="6"/>
+      <c r="C214" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
@@ -4466,7 +4478,9 @@
       <c r="B215" s="2">
         <v>0</v>
       </c>
-      <c r="C215" s="6"/>
+      <c r="C215" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
@@ -4475,7 +4489,9 @@
       <c r="B216" s="2">
         <v>0</v>
       </c>
-      <c r="C216" s="6"/>
+      <c r="C216" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
@@ -4484,7 +4500,9 @@
       <c r="B217" s="2">
         <v>1</v>
       </c>
-      <c r="C217" s="6"/>
+      <c r="C217" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="218" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
@@ -4493,7 +4511,9 @@
       <c r="B218" s="2">
         <v>0</v>
       </c>
-      <c r="C218" s="6"/>
+      <c r="C218" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
@@ -4502,7 +4522,9 @@
       <c r="B219" s="2">
         <v>1</v>
       </c>
-      <c r="C219" s="6"/>
+      <c r="C219" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="220" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
@@ -4511,7 +4533,9 @@
       <c r="B220" s="2">
         <v>0</v>
       </c>
-      <c r="C220" s="6"/>
+      <c r="C220" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:3" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
@@ -4520,7 +4544,9 @@
       <c r="B221" s="2">
         <v>0</v>
       </c>
-      <c r="C221" s="6"/>
+      <c r="C221" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
@@ -4529,7 +4555,9 @@
       <c r="B222" s="2">
         <v>0</v>
       </c>
-      <c r="C222" s="6"/>
+      <c r="C222" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
@@ -4538,7 +4566,9 @@
       <c r="B223" s="2">
         <v>0</v>
       </c>
-      <c r="C223" s="6"/>
+      <c r="C223" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
@@ -4547,7 +4577,9 @@
       <c r="B224" s="2">
         <v>0</v>
       </c>
-      <c r="C224" s="6"/>
+      <c r="C224" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
@@ -4556,7 +4588,9 @@
       <c r="B225" s="2">
         <v>0</v>
       </c>
-      <c r="C225" s="6"/>
+      <c r="C225" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
@@ -4565,7 +4599,9 @@
       <c r="B226" s="2">
         <v>0</v>
       </c>
-      <c r="C226" s="6"/>
+      <c r="C226" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="227" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
@@ -4574,7 +4610,9 @@
       <c r="B227" s="2">
         <v>1</v>
       </c>
-      <c r="C227" s="6"/>
+      <c r="C227" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="228" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
@@ -4583,7 +4621,9 @@
       <c r="B228" s="2">
         <v>0</v>
       </c>
-      <c r="C228" s="6"/>
+      <c r="C228" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
@@ -4592,7 +4632,9 @@
       <c r="B229" s="2">
         <v>0</v>
       </c>
-      <c r="C229" s="6"/>
+      <c r="C229" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
@@ -4601,7 +4643,9 @@
       <c r="B230" s="2">
         <v>0</v>
       </c>
-      <c r="C230" s="6"/>
+      <c r="C230" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
@@ -4610,7 +4654,9 @@
       <c r="B231" s="2">
         <v>0</v>
       </c>
-      <c r="C231" s="6"/>
+      <c r="C231" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
@@ -4619,7 +4665,9 @@
       <c r="B232" s="2">
         <v>0</v>
       </c>
-      <c r="C232" s="6"/>
+      <c r="C232" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
@@ -4628,7 +4676,9 @@
       <c r="B233" s="2">
         <v>0</v>
       </c>
-      <c r="C233" s="6"/>
+      <c r="C233" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
@@ -4637,7 +4687,9 @@
       <c r="B234" s="2">
         <v>0</v>
       </c>
-      <c r="C234" s="6"/>
+      <c r="C234" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
@@ -4646,7 +4698,9 @@
       <c r="B235" s="2">
         <v>0</v>
       </c>
-      <c r="C235" s="6"/>
+      <c r="C235" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
@@ -4655,7 +4709,9 @@
       <c r="B236" s="2">
         <v>1</v>
       </c>
-      <c r="C236" s="6"/>
+      <c r="C236" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
@@ -4664,7 +4720,9 @@
       <c r="B237" s="2">
         <v>1</v>
       </c>
-      <c r="C237" s="6"/>
+      <c r="C237" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="238" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
@@ -4673,7 +4731,9 @@
       <c r="B238" s="2">
         <v>1</v>
       </c>
-      <c r="C238" s="6"/>
+      <c r="C238" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
@@ -4682,7 +4742,9 @@
       <c r="B239" s="2">
         <v>1</v>
       </c>
-      <c r="C239" s="6"/>
+      <c r="C239" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="240" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
@@ -4691,7 +4753,9 @@
       <c r="B240" s="2">
         <v>0</v>
       </c>
-      <c r="C240" s="6"/>
+      <c r="C240" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
@@ -4700,7 +4764,9 @@
       <c r="B241" s="2">
         <v>0</v>
       </c>
-      <c r="C241" s="6"/>
+      <c r="C241" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="242" spans="1:3" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
@@ -4709,7 +4775,9 @@
       <c r="B242" s="2">
         <v>1</v>
       </c>
-      <c r="C242" s="6"/>
+      <c r="C242" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="243" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
@@ -4718,7 +4786,9 @@
       <c r="B243" s="2">
         <v>1</v>
       </c>
-      <c r="C243" s="6"/>
+      <c r="C243" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="244" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
@@ -4727,7 +4797,9 @@
       <c r="B244" s="2">
         <v>0</v>
       </c>
-      <c r="C244" s="6"/>
+      <c r="C244" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
@@ -4736,7 +4808,9 @@
       <c r="B245" s="2">
         <v>0</v>
       </c>
-      <c r="C245" s="6"/>
+      <c r="C245" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
@@ -4745,7 +4819,9 @@
       <c r="B246" s="2">
         <v>0</v>
       </c>
-      <c r="C246" s="6"/>
+      <c r="C246" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
@@ -4754,7 +4830,9 @@
       <c r="B247" s="2">
         <v>0</v>
       </c>
-      <c r="C247" s="6"/>
+      <c r="C247" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="248" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
@@ -4763,7 +4841,9 @@
       <c r="B248" s="2">
         <v>0</v>
       </c>
-      <c r="C248" s="6"/>
+      <c r="C248" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
@@ -4772,7 +4852,9 @@
       <c r="B249" s="2">
         <v>1</v>
       </c>
-      <c r="C249" s="6"/>
+      <c r="C249" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
@@ -4781,7 +4863,9 @@
       <c r="B250" s="2">
         <v>0</v>
       </c>
-      <c r="C250" s="6"/>
+      <c r="C250" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
@@ -4790,7 +4874,9 @@
       <c r="B251" s="2">
         <v>0</v>
       </c>
-      <c r="C251" s="6"/>
+      <c r="C251" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
@@ -4799,7 +4885,9 @@
       <c r="B252" s="2">
         <v>0</v>
       </c>
-      <c r="C252" s="6"/>
+      <c r="C252" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
@@ -4808,7 +4896,9 @@
       <c r="B253" s="2">
         <v>0</v>
       </c>
-      <c r="C253" s="6"/>
+      <c r="C253" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
@@ -4817,7 +4907,9 @@
       <c r="B254" s="2">
         <v>0</v>
       </c>
-      <c r="C254" s="6"/>
+      <c r="C254" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
@@ -4826,7 +4918,9 @@
       <c r="B255" s="2">
         <v>0</v>
       </c>
-      <c r="C255" s="6"/>
+      <c r="C255" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
@@ -4835,7 +4929,9 @@
       <c r="B256" s="2">
         <v>0</v>
       </c>
-      <c r="C256" s="6"/>
+      <c r="C256" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
@@ -4844,7 +4940,9 @@
       <c r="B257" s="2">
         <v>0</v>
       </c>
-      <c r="C257" s="6"/>
+      <c r="C257" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
@@ -4853,7 +4951,9 @@
       <c r="B258" s="2">
         <v>0</v>
       </c>
-      <c r="C258" s="6"/>
+      <c r="C258" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
@@ -4862,7 +4962,9 @@
       <c r="B259" s="2">
         <v>0</v>
       </c>
-      <c r="C259" s="6"/>
+      <c r="C259" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
@@ -4871,7 +4973,9 @@
       <c r="B260" s="2">
         <v>0</v>
       </c>
-      <c r="C260" s="6"/>
+      <c r="C260" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="261" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
@@ -4880,7 +4984,9 @@
       <c r="B261" s="2">
         <v>0</v>
       </c>
-      <c r="C261" s="6"/>
+      <c r="C261" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
@@ -4889,7 +4995,9 @@
       <c r="B262" s="2">
         <v>0</v>
       </c>
-      <c r="C262" s="6"/>
+      <c r="C262" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="263" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
@@ -4898,7 +5006,9 @@
       <c r="B263" s="2">
         <v>0</v>
       </c>
-      <c r="C263" s="6"/>
+      <c r="C263" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="264" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
@@ -4907,7 +5017,9 @@
       <c r="B264" s="2">
         <v>0</v>
       </c>
-      <c r="C264" s="6"/>
+      <c r="C264" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
@@ -4916,7 +5028,9 @@
       <c r="B265" s="2">
         <v>0</v>
       </c>
-      <c r="C265" s="6"/>
+      <c r="C265" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
@@ -4925,7 +5039,9 @@
       <c r="B266" s="2">
         <v>0</v>
       </c>
-      <c r="C266" s="6"/>
+      <c r="C266" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:3" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
@@ -4934,7 +5050,9 @@
       <c r="B267" s="2">
         <v>1</v>
       </c>
-      <c r="C267" s="6"/>
+      <c r="C267" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="268" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
@@ -4943,7 +5061,9 @@
       <c r="B268" s="2">
         <v>1</v>
       </c>
-      <c r="C268" s="6"/>
+      <c r="C268" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
@@ -4952,7 +5072,9 @@
       <c r="B269" s="2">
         <v>0</v>
       </c>
-      <c r="C269" s="6"/>
+      <c r="C269" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="270" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
@@ -4961,7 +5083,9 @@
       <c r="B270" s="2">
         <v>0</v>
       </c>
-      <c r="C270" s="6"/>
+      <c r="C270" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
@@ -4970,7 +5094,9 @@
       <c r="B271" s="2">
         <v>0</v>
       </c>
-      <c r="C271" s="6"/>
+      <c r="C271" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
@@ -4979,7 +5105,9 @@
       <c r="B272" s="2">
         <v>0</v>
       </c>
-      <c r="C272" s="6"/>
+      <c r="C272" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="273" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
@@ -4988,7 +5116,9 @@
       <c r="B273" s="2">
         <v>0</v>
       </c>
-      <c r="C273" s="6"/>
+      <c r="C273" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
@@ -4997,7 +5127,9 @@
       <c r="B274" s="2">
         <v>1</v>
       </c>
-      <c r="C274" s="6"/>
+      <c r="C274" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
@@ -5006,7 +5138,9 @@
       <c r="B275" s="2">
         <v>0</v>
       </c>
-      <c r="C275" s="6"/>
+      <c r="C275" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="276" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
@@ -5015,7 +5149,9 @@
       <c r="B276" s="2">
         <v>0</v>
       </c>
-      <c r="C276" s="6"/>
+      <c r="C276" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
@@ -5024,7 +5160,9 @@
       <c r="B277" s="2">
         <v>0</v>
       </c>
-      <c r="C277" s="6"/>
+      <c r="C277" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="278" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
@@ -5033,7 +5171,9 @@
       <c r="B278" s="2">
         <v>0</v>
       </c>
-      <c r="C278" s="6"/>
+      <c r="C278" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="279" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
@@ -5042,7 +5182,9 @@
       <c r="B279" s="2">
         <v>0</v>
       </c>
-      <c r="C279" s="6"/>
+      <c r="C279" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="280" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
@@ -5051,7 +5193,9 @@
       <c r="B280" s="2">
         <v>0</v>
       </c>
-      <c r="C280" s="6"/>
+      <c r="C280" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
@@ -5060,7 +5204,9 @@
       <c r="B281" s="2">
         <v>0</v>
       </c>
-      <c r="C281" s="6"/>
+      <c r="C281" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="282" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
@@ -5069,7 +5215,9 @@
       <c r="B282" s="2">
         <v>0</v>
       </c>
-      <c r="C282" s="6"/>
+      <c r="C282" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
@@ -5078,7 +5226,9 @@
       <c r="B283" s="2">
         <v>0</v>
       </c>
-      <c r="C283" s="6"/>
+      <c r="C283" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="284" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
@@ -5087,7 +5237,9 @@
       <c r="B284" s="2">
         <v>0</v>
       </c>
-      <c r="C284" s="6"/>
+      <c r="C284" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:3" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
@@ -5096,7 +5248,9 @@
       <c r="B285" s="2">
         <v>0</v>
       </c>
-      <c r="C285" s="6"/>
+      <c r="C285" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
@@ -5105,7 +5259,9 @@
       <c r="B286" s="2">
         <v>1</v>
       </c>
-      <c r="C286" s="6"/>
+      <c r="C286" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:3" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
@@ -5114,7 +5270,9 @@
       <c r="B287" s="2">
         <v>0</v>
       </c>
-      <c r="C287" s="6"/>
+      <c r="C287" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
@@ -5123,7 +5281,9 @@
       <c r="B288" s="2">
         <v>0</v>
       </c>
-      <c r="C288" s="6"/>
+      <c r="C288" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
@@ -5132,7 +5292,9 @@
       <c r="B289" s="2">
         <v>1</v>
       </c>
-      <c r="C289" s="6"/>
+      <c r="C289" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
@@ -5141,7 +5303,9 @@
       <c r="B290" s="2">
         <v>0</v>
       </c>
-      <c r="C290" s="6"/>
+      <c r="C290" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
@@ -5150,7 +5314,9 @@
       <c r="B291" s="2">
         <v>0</v>
       </c>
-      <c r="C291" s="6"/>
+      <c r="C291" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:3" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
@@ -5159,7 +5325,9 @@
       <c r="B292" s="2">
         <v>0</v>
       </c>
-      <c r="C292" s="6"/>
+      <c r="C292" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
@@ -5168,7 +5336,9 @@
       <c r="B293" s="2">
         <v>0</v>
       </c>
-      <c r="C293" s="6"/>
+      <c r="C293" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" spans="1:3" s="3" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
@@ -5177,7 +5347,9 @@
       <c r="B294" s="2">
         <v>0</v>
       </c>
-      <c r="C294" s="6"/>
+      <c r="C294" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
@@ -5186,7 +5358,9 @@
       <c r="B295" s="2">
         <v>0</v>
       </c>
-      <c r="C295" s="6"/>
+      <c r="C295" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
@@ -5195,7 +5369,9 @@
       <c r="B296" s="2">
         <v>0</v>
       </c>
-      <c r="C296" s="6"/>
+      <c r="C296" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
@@ -5204,7 +5380,9 @@
       <c r="B297" s="2">
         <v>1</v>
       </c>
-      <c r="C297" s="6"/>
+      <c r="C297" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
@@ -5213,7 +5391,9 @@
       <c r="B298" s="2">
         <v>0</v>
       </c>
-      <c r="C298" s="6"/>
+      <c r="C298" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
@@ -5222,7 +5402,9 @@
       <c r="B299" s="2">
         <v>0</v>
       </c>
-      <c r="C299" s="6"/>
+      <c r="C299" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="300" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
@@ -5231,7 +5413,9 @@
       <c r="B300" s="2">
         <v>0</v>
       </c>
-      <c r="C300" s="6"/>
+      <c r="C300" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:3" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
@@ -5240,7 +5424,9 @@
       <c r="B301" s="2">
         <v>0</v>
       </c>
-      <c r="C301" s="6"/>
+      <c r="C301" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="302" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
@@ -5249,6 +5435,9 @@
       <c r="B302" s="2">
         <v>0</v>
       </c>
+      <c r="C302" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
@@ -5257,6 +5446,9 @@
       <c r="B303" s="2">
         <v>0</v>
       </c>
+      <c r="C303" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
@@ -5265,1582 +5457,2206 @@
       <c r="B304" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C304" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C305" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C306" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C307" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C308" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C309" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C312" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C313" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C314" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C317" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C322" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C324" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C325" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C328" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C330" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C332" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C333" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C334" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C335" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C336" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C337" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C338" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C339" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C340" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C341" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C342" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C343" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C344" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C345" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C346" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C347" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C348" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C349" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C350" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C351" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B352" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C352" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B353" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C353" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B354" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C354" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B355" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C355" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B356" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C356" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B357" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C357" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B358" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C358" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B359" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C359" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B360" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C360" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B361" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C361" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B362" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C362" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B363" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C363" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B364" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C364" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B365" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C365" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B366" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C366" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B367" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C367" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B368" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C368" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B369" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C369" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B370" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C370" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B371" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C371" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B372" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C372" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B373" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C373" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B374" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C374" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B375" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C375" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B376" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C376" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B377" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C377" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B378" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C378" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B379" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C379" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B380" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C380" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B381" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C381" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B382" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C382" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B383" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C383" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B384" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C384" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B385" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C385" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B386" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C386" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B387" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C387" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B388" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C388" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B389" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C389" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B390" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C390" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B391" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C391" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B392" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C392" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B393" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C393" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B394" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="C394" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B395" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C395" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B396" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C396" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B397" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C397" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B398" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C398" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B399" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C399" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B400" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C400" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B401" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C401" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B402" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C402" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B403" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C403" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B404" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C404" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B405" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C405" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B406" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C406" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B407" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C407" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B408" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C408" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B409" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C409" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B410" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C410" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B411" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C411" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B412" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C412" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B413" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C413" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B414" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C414" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B415" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C415" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B416" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C416" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B417" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C417" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B418" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C418" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B419" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C419" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B420" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C420" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B421" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C421" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B422" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C422" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B423" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C423" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B424" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C424" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B425" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C425" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B426" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C426" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B427" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C427" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B428" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C428" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B429" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C429" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B430" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C430" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B431" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C431" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B432" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C432" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B433" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C433" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B434" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C434" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B435" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C435" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B436" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C436" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B437" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C437" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B438" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C438" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B439" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C439" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B440" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C440" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B441" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C441" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B442" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C442" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B443" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C443" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B444" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C444" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B445" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C445" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B446" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C446" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B447" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C447" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B448" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C448" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B449" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C449" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B450" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C450" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B451" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C451" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B452" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C452" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B453" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C453" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B454" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C454" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B455" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C455" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B456" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C456" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B457" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C457" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B458" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C458" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B459" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C459" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B460" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C460" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B461" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C461" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B462" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C462" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B463" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C463" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B464" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C464" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B465" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C465" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B466" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C466" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B467" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C467" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B468" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C468" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B469" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C469" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B470" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C470" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B471" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C471" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B472" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C472" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B473" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C473" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B474" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C474" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B475" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C475" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B476" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C476" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B477" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C477" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B478" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C478" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B479" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C479" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B480" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C480" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B481" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C481" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B482" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C482" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B483" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C483" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B484" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C484" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B485" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C485" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B486" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C486" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B487" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C487" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B488" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C488" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B489" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C489" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B490" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C490" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B491" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C491" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B492" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C492" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B493" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C493" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B494" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C494" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B495" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="C495" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B496" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C496" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B497" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C497" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B498" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C498" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B499" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C499" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B500" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C500" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B501" s="2">
         <v>0</v>
       </c>
+      <c r="C501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C502" s="6"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C503" s="6"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C504" s="6"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C505" s="6"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C506" s="6"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C507" s="6"/>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C508" s="6"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C509" s="6"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C510" s="6"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C511" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
